--- a/Assets/MiniTemplate/Datas/character.xlsx
+++ b/Assets/MiniTemplate/Datas/character.xlsx
@@ -410,7 +410,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -486,10 +486,10 @@
         <v>100</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H4">
         <v>10</v>

--- a/Assets/MiniTemplate/Datas/character.xlsx
+++ b/Assets/MiniTemplate/Datas/character.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>##var</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -82,6 +82,14 @@
   </si>
   <si>
     <t>UnityChan</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>maxTenacity</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>float</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -418,7 +426,7 @@
     <col min="4" max="4" width="11.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,8 +451,11 @@
       <c r="H1" t="s">
         <v>13</v>
       </c>
+      <c r="I1" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -469,13 +480,16 @@
       <c r="H2" t="s">
         <v>11</v>
       </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B4">
         <v>1001</v>
       </c>
@@ -493,6 +507,9 @@
       </c>
       <c r="H4">
         <v>10</v>
+      </c>
+      <c r="I4">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
